--- a/Supply.xlsx
+++ b/Supply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyidong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C66CEA-8ABE-E641-9D5C-12B3F2F050E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEC14F-A45A-F744-AEE6-F911F08CD5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="560" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{F79BD824-BF5C-4D41-98DC-08BFC4AC6513}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F79BD824-BF5C-4D41-98DC-08BFC4AC6513}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="45">
   <si>
     <t>PROD_ID</t>
   </si>
@@ -163,36 +163,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>22.0627° N</t>
-  </si>
-  <si>
-    <t>88.0833° E</t>
-  </si>
-  <si>
-    <t>20.3166° N</t>
-  </si>
-  <si>
-    <t>86.6114° E</t>
-  </si>
-  <si>
-    <t>18.9498° N</t>
-  </si>
-  <si>
-    <t>72.9505° E</t>
-  </si>
-  <si>
-    <t>22.4277° N</t>
-  </si>
-  <si>
-    <t>69.8419° E</t>
-  </si>
-  <si>
-    <t>22.3976° N</t>
-  </si>
-  <si>
-    <t>69.7198° E</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -200,12 +170,6 @@
   </si>
   <si>
     <t>Ship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6234° N, </t>
-  </si>
-  <si>
-    <t>92.7265° E</t>
   </si>
 </sst>
 </file>
@@ -12530,7 +12494,7 @@
   <dimension ref="A1:N342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D341" sqref="D341"/>
+      <selection activeCell="D312" sqref="D312:E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12549,7 +12513,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
@@ -12593,13 +12557,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F2" s="4">
         <v>22423.5</v>
@@ -12639,13 +12603,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -12685,13 +12649,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D4" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -12731,13 +12695,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F5" s="4">
         <v>22423.5</v>
@@ -12777,13 +12741,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -12823,13 +12787,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -12869,13 +12833,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F8" s="4">
         <v>22423.5</v>
@@ -12915,13 +12879,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -12961,13 +12925,13 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F10" s="4">
         <v>22423.5</v>
@@ -13007,13 +12971,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -13053,13 +13017,13 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -13099,13 +13063,13 @@
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F13" s="4">
         <v>22423.5</v>
@@ -13145,13 +13109,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -13191,13 +13155,13 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -13237,13 +13201,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D16" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F16" s="4">
         <v>22423.5</v>
@@ -13283,13 +13247,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -13329,13 +13293,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -13375,13 +13339,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D19" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E19" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F19" s="4">
         <v>22423.5</v>
@@ -13421,13 +13385,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -13467,13 +13431,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D21" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -13513,13 +13477,13 @@
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D22" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E22" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F22" s="4">
         <v>22423.5</v>
@@ -13559,13 +13523,13 @@
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -13605,13 +13569,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F24" s="4">
         <v>22423.5</v>
@@ -13651,13 +13615,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D25" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E25" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -13697,13 +13661,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D26" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E26" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -13743,13 +13707,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D27" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E27" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F27" s="4">
         <v>22423.5</v>
@@ -13789,13 +13753,13 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D28" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E28" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -13835,13 +13799,13 @@
         <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D29" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -13881,13 +13845,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D30" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E30" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F30" s="4">
         <v>22423.5</v>
@@ -13927,13 +13891,13 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D31" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -13973,13 +13937,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D32" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E32" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -14019,13 +13983,13 @@
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D33" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E33" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F33" s="4">
         <v>3280.5227272727275</v>
@@ -14065,13 +14029,13 @@
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D34" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E34" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -14111,13 +14075,13 @@
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D35" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E35" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -14157,13 +14121,13 @@
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D36" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E36" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F36" s="4">
         <v>3280.5227272727275</v>
@@ -14203,13 +14167,13 @@
         <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D37" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E37" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -14249,13 +14213,13 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E38" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -14295,13 +14259,13 @@
         <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D39" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E39" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F39" s="4">
         <v>3280.5227272727275</v>
@@ -14341,13 +14305,13 @@
         <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D40" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E40" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -14387,13 +14351,13 @@
         <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D41" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E41" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F41" s="4">
         <v>3280.5227272727275</v>
@@ -14433,13 +14397,13 @@
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D42" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E42" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -14479,13 +14443,13 @@
         <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D43" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E43" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -14525,13 +14489,13 @@
         <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D44" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E44" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F44" s="4">
         <v>3280.5227272727275</v>
@@ -14571,13 +14535,13 @@
         <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D45" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E45" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -14617,13 +14581,13 @@
         <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D46" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E46" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -14663,13 +14627,13 @@
         <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D47" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E47" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F47" s="4">
         <v>3280.5227272727275</v>
@@ -14709,13 +14673,13 @@
         <v>24</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D48" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E48" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -14755,13 +14719,13 @@
         <v>24</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D49" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E49" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -14801,13 +14765,13 @@
         <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D50" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E50" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F50" s="4">
         <v>3280.5227272727275</v>
@@ -14847,13 +14811,13 @@
         <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D51" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E51" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -14893,13 +14857,13 @@
         <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D52" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E52" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -14939,13 +14903,13 @@
         <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D53" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E53" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F53" s="4">
         <v>3280.5227272727275</v>
@@ -14985,13 +14949,13 @@
         <v>24</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D54" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E54" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -15031,13 +14995,13 @@
         <v>24</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D55" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E55" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F55" s="4">
         <v>3280.5227272727275</v>
@@ -15077,13 +15041,13 @@
         <v>24</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D56" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E56" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
@@ -15123,13 +15087,13 @@
         <v>24</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D57" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E57" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -15169,13 +15133,13 @@
         <v>24</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D58" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E58" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F58" s="4">
         <v>3280.5227272727275</v>
@@ -15215,13 +15179,13 @@
         <v>24</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D59" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E59" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -15261,13 +15225,13 @@
         <v>24</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D60" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E60" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -15307,13 +15271,13 @@
         <v>24</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D61" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E61" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F61" s="4">
         <v>3280.5227272727275</v>
@@ -15353,13 +15317,13 @@
         <v>24</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D62" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E62" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -15399,13 +15363,13 @@
         <v>24</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="D63" s="2">
+        <v>22.066673000000002</v>
+      </c>
+      <c r="E63" s="2">
+        <v>88.069809000000006</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -15445,13 +15409,13 @@
         <v>30</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D64" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E64" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F64" s="4">
         <v>10153.848484848484</v>
@@ -15491,13 +15455,13 @@
         <v>30</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D65" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E65" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -15537,13 +15501,13 @@
         <v>30</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D66" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E66" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -15583,13 +15547,13 @@
         <v>30</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D67" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E67" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F67" s="4">
         <v>10153.848484848484</v>
@@ -15629,13 +15593,13 @@
         <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D68" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E68" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -15675,13 +15639,13 @@
         <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D69" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E69" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -15721,13 +15685,13 @@
         <v>30</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D70" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E70" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F70" s="4">
         <v>10153.848484848484</v>
@@ -15767,13 +15731,13 @@
         <v>30</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D71" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E71" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -15813,13 +15777,13 @@
         <v>30</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D72" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E72" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F72" s="4">
         <v>10153.848484848484</v>
@@ -15859,13 +15823,13 @@
         <v>30</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D73" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E73" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -15905,13 +15869,13 @@
         <v>30</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D74" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E74" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -15951,13 +15915,13 @@
         <v>30</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D75" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E75" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F75" s="4">
         <v>10153.848484848484</v>
@@ -15997,13 +15961,13 @@
         <v>30</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D76" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E76" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -16043,13 +16007,13 @@
         <v>30</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D77" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E77" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -16089,13 +16053,13 @@
         <v>30</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D78" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E78" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F78" s="4">
         <v>10153.848484848484</v>
@@ -16135,13 +16099,13 @@
         <v>30</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D79" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E79" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -16181,13 +16145,13 @@
         <v>30</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D80" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E80" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -16227,13 +16191,13 @@
         <v>30</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D81" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E81" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F81" s="4">
         <v>10153.848484848484</v>
@@ -16273,13 +16237,13 @@
         <v>30</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D82" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E82" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -16319,13 +16283,13 @@
         <v>30</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D83" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E83" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -16365,13 +16329,13 @@
         <v>30</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D84" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E84" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F84" s="4">
         <v>10153.848484848484</v>
@@ -16411,13 +16375,13 @@
         <v>30</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D85" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E85" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
@@ -16457,13 +16421,13 @@
         <v>30</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D86" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E86" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F86" s="4">
         <v>10153.848484848484</v>
@@ -16503,13 +16467,13 @@
         <v>30</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D87" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E87" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F87" s="4">
         <v>0</v>
@@ -16549,13 +16513,13 @@
         <v>30</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D88" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E88" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -16595,13 +16559,13 @@
         <v>30</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D89" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E89" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F89" s="4">
         <v>10153.848484848484</v>
@@ -16641,13 +16605,13 @@
         <v>30</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D90" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E90" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -16687,13 +16651,13 @@
         <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D91" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E91" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -16733,13 +16697,13 @@
         <v>30</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D92" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E92" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F92" s="4">
         <v>10153.848484848484</v>
@@ -16779,13 +16743,13 @@
         <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D93" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E93" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -16825,13 +16789,13 @@
         <v>30</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D94" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E94" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F94" s="4">
         <v>0</v>
@@ -16871,13 +16835,13 @@
         <v>30</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D95" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E95" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F95" s="4">
         <v>3280.5227272727275</v>
@@ -16917,13 +16881,13 @@
         <v>30</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D96" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E96" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F96" s="4">
         <v>0</v>
@@ -16963,13 +16927,13 @@
         <v>30</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D97" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E97" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -17009,13 +16973,13 @@
         <v>30</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D98" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E98" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F98" s="4">
         <v>3280.5227272727275</v>
@@ -17055,13 +17019,13 @@
         <v>30</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D99" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E99" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -17101,13 +17065,13 @@
         <v>30</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D100" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E100" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
@@ -17147,13 +17111,13 @@
         <v>30</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D101" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E101" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F101" s="4">
         <v>3280.5227272727275</v>
@@ -17193,13 +17157,13 @@
         <v>30</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D102" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E102" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>
@@ -17239,13 +17203,13 @@
         <v>30</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D103" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E103" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F103" s="4">
         <v>3280.5227272727275</v>
@@ -17285,13 +17249,13 @@
         <v>30</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D104" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E104" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F104" s="4">
         <v>0</v>
@@ -17331,13 +17295,13 @@
         <v>30</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D105" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E105" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F105" s="4">
         <v>0</v>
@@ -17377,13 +17341,13 @@
         <v>30</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D106" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E106" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F106" s="4">
         <v>3280.5227272727275</v>
@@ -17423,13 +17387,13 @@
         <v>30</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D107" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E107" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F107" s="4">
         <v>0</v>
@@ -17469,13 +17433,13 @@
         <v>30</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D108" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E108" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F108" s="4">
         <v>0</v>
@@ -17515,13 +17479,13 @@
         <v>30</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D109" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E109" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F109" s="4">
         <v>3280.5227272727275</v>
@@ -17561,13 +17525,13 @@
         <v>30</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D110" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E110" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F110" s="4">
         <v>0</v>
@@ -17607,13 +17571,13 @@
         <v>30</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D111" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E111" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F111" s="4">
         <v>0</v>
@@ -17653,13 +17617,13 @@
         <v>30</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D112" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E112" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F112" s="4">
         <v>3280.5227272727275</v>
@@ -17699,13 +17663,13 @@
         <v>30</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D113" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E113" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F113" s="4">
         <v>0</v>
@@ -17745,13 +17709,13 @@
         <v>30</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D114" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E114" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F114" s="4">
         <v>0</v>
@@ -17791,13 +17755,13 @@
         <v>30</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D115" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E115" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F115" s="4">
         <v>3280.5227272727275</v>
@@ -17837,13 +17801,13 @@
         <v>30</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D116" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E116" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F116" s="4">
         <v>0</v>
@@ -17883,13 +17847,13 @@
         <v>30</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D117" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E117" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F117" s="4">
         <v>3280.5227272727275</v>
@@ -17929,13 +17893,13 @@
         <v>30</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D118" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E118" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F118" s="4">
         <v>0</v>
@@ -17975,13 +17939,13 @@
         <v>30</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D119" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E119" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F119" s="4">
         <v>0</v>
@@ -18021,13 +17985,13 @@
         <v>30</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D120" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E120" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F120" s="4">
         <v>3280.5227272727275</v>
@@ -18067,13 +18031,13 @@
         <v>30</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D121" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E121" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F121" s="4">
         <v>0</v>
@@ -18113,13 +18077,13 @@
         <v>30</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D122" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E122" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F122" s="4">
         <v>0</v>
@@ -18159,13 +18123,13 @@
         <v>30</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D123" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E123" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F123" s="4">
         <v>3280.5227272727275</v>
@@ -18205,13 +18169,13 @@
         <v>30</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D124" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E124" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F124" s="4">
         <v>0</v>
@@ -18251,13 +18215,13 @@
         <v>30</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D125" s="2">
+        <v>20.316551</v>
+      </c>
+      <c r="E125" s="2">
+        <v>86.611366000000004</v>
       </c>
       <c r="F125" s="4">
         <v>0</v>
@@ -18297,13 +18261,13 @@
         <v>31</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D126" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E126" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F126" s="4">
         <v>10153.848484848484</v>
@@ -18343,13 +18307,13 @@
         <v>31</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D127" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E127" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F127" s="4">
         <v>0</v>
@@ -18389,13 +18353,13 @@
         <v>31</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D128" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E128" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F128" s="4">
         <v>0</v>
@@ -18435,13 +18399,13 @@
         <v>31</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D129" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E129" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F129" s="4">
         <v>10153.848484848484</v>
@@ -18481,13 +18445,13 @@
         <v>31</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D130" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E130" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F130" s="4">
         <v>0</v>
@@ -18527,13 +18491,13 @@
         <v>31</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D131" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E131" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F131" s="4">
         <v>0</v>
@@ -18573,13 +18537,13 @@
         <v>31</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D132" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E132" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F132" s="4">
         <v>10153.848484848484</v>
@@ -18619,13 +18583,13 @@
         <v>31</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D133" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E133" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F133" s="4">
         <v>0</v>
@@ -18665,13 +18629,13 @@
         <v>31</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D134" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E134" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F134" s="4">
         <v>10153.848484848484</v>
@@ -18711,13 +18675,13 @@
         <v>31</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D135" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E135" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F135" s="4">
         <v>0</v>
@@ -18757,13 +18721,13 @@
         <v>31</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D136" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E136" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F136" s="4">
         <v>0</v>
@@ -18803,13 +18767,13 @@
         <v>31</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D137" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E137" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F137" s="4">
         <v>10153.848484848484</v>
@@ -18849,13 +18813,13 @@
         <v>31</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D138" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E138" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F138" s="4">
         <v>0</v>
@@ -18895,13 +18859,13 @@
         <v>31</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D139" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E139" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F139" s="4">
         <v>0</v>
@@ -18941,13 +18905,13 @@
         <v>31</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D140" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E140" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F140" s="4">
         <v>10153.848484848484</v>
@@ -18987,13 +18951,13 @@
         <v>31</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D141" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E141" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F141" s="4">
         <v>0</v>
@@ -19033,13 +18997,13 @@
         <v>31</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D142" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E142" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F142" s="4">
         <v>0</v>
@@ -19079,13 +19043,13 @@
         <v>31</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D143" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E143" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F143" s="4">
         <v>10153.848484848484</v>
@@ -19125,13 +19089,13 @@
         <v>31</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D144" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E144" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F144" s="4">
         <v>0</v>
@@ -19171,13 +19135,13 @@
         <v>31</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D145" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E145" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F145" s="4">
         <v>0</v>
@@ -19217,13 +19181,13 @@
         <v>31</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D146" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E146" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F146" s="4">
         <v>10153.848484848484</v>
@@ -19263,13 +19227,13 @@
         <v>31</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D147" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E147" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F147" s="4">
         <v>0</v>
@@ -19309,13 +19273,13 @@
         <v>31</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D148" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E148" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F148" s="4">
         <v>10153.848484848484</v>
@@ -19355,13 +19319,13 @@
         <v>31</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D149" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E149" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F149" s="4">
         <v>0</v>
@@ -19401,13 +19365,13 @@
         <v>31</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D150" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E150" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F150" s="4">
         <v>0</v>
@@ -19447,13 +19411,13 @@
         <v>31</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D151" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E151" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F151" s="4">
         <v>10153.848484848484</v>
@@ -19493,13 +19457,13 @@
         <v>31</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D152" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E152" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F152" s="4">
         <v>0</v>
@@ -19539,13 +19503,13 @@
         <v>31</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D153" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E153" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F153" s="4">
         <v>0</v>
@@ -19585,13 +19549,13 @@
         <v>31</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D154" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E154" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F154" s="4">
         <v>10153.848484848484</v>
@@ -19631,13 +19595,13 @@
         <v>31</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D155" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E155" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F155" s="4">
         <v>0</v>
@@ -19677,13 +19641,13 @@
         <v>31</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D156" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E156" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F156" s="4">
         <v>0</v>
@@ -19723,13 +19687,13 @@
         <v>31</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D157" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E157" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F157" s="4">
         <v>3280.5227272727275</v>
@@ -19769,13 +19733,13 @@
         <v>31</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D158" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E158" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F158" s="4">
         <v>0</v>
@@ -19815,13 +19779,13 @@
         <v>31</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D159" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E159" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
@@ -19861,13 +19825,13 @@
         <v>31</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D160" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E160" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F160" s="4">
         <v>3280.5227272727275</v>
@@ -19907,13 +19871,13 @@
         <v>31</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D161" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E161" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F161" s="4">
         <v>0</v>
@@ -19953,13 +19917,13 @@
         <v>31</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D162" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E162" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F162" s="4">
         <v>0</v>
@@ -19999,13 +19963,13 @@
         <v>31</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D163" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E163" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F163" s="4">
         <v>3280.5227272727275</v>
@@ -20045,13 +20009,13 @@
         <v>31</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D164" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E164" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F164" s="4">
         <v>0</v>
@@ -20091,13 +20055,13 @@
         <v>31</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D165" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E165" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F165" s="4">
         <v>3280.5227272727275</v>
@@ -20137,13 +20101,13 @@
         <v>31</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D166" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E166" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F166" s="4">
         <v>0</v>
@@ -20183,13 +20147,13 @@
         <v>31</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D167" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E167" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F167" s="4">
         <v>0</v>
@@ -20229,13 +20193,13 @@
         <v>31</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D168" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E168" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F168" s="4">
         <v>3280.5227272727275</v>
@@ -20275,13 +20239,13 @@
         <v>31</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D169" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E169" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F169" s="4">
         <v>0</v>
@@ -20321,13 +20285,13 @@
         <v>31</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D170" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E170" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F170" s="4">
         <v>0</v>
@@ -20367,13 +20331,13 @@
         <v>31</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D171" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E171" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F171" s="4">
         <v>3280.5227272727275</v>
@@ -20413,13 +20377,13 @@
         <v>31</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D172" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E172" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F172" s="4">
         <v>0</v>
@@ -20459,13 +20423,13 @@
         <v>31</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D173" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E173" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F173" s="4">
         <v>0</v>
@@ -20505,13 +20469,13 @@
         <v>31</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D174" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E174" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F174" s="4">
         <v>3280.5227272727275</v>
@@ -20551,13 +20515,13 @@
         <v>31</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D175" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E175" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F175" s="4">
         <v>0</v>
@@ -20597,13 +20561,13 @@
         <v>31</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D176" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E176" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F176" s="4">
         <v>0</v>
@@ -20643,13 +20607,13 @@
         <v>31</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D177" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E177" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F177" s="4">
         <v>3280.5227272727275</v>
@@ -20689,13 +20653,13 @@
         <v>31</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D178" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E178" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F178" s="4">
         <v>0</v>
@@ -20735,13 +20699,13 @@
         <v>31</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D179" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E179" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F179" s="4">
         <v>3280.5227272727275</v>
@@ -20781,13 +20745,13 @@
         <v>31</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D180" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E180" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F180" s="4">
         <v>0</v>
@@ -20827,13 +20791,13 @@
         <v>31</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D181" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E181" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F181" s="4">
         <v>0</v>
@@ -20873,13 +20837,13 @@
         <v>31</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D182" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E182" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F182" s="4">
         <v>3280.5227272727275</v>
@@ -20919,13 +20883,13 @@
         <v>31</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D183" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E183" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F183" s="4">
         <v>0</v>
@@ -20965,13 +20929,13 @@
         <v>31</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D184" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E184" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F184" s="4">
         <v>0</v>
@@ -21011,13 +20975,13 @@
         <v>31</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D185" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E185" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F185" s="4">
         <v>3280.5227272727275</v>
@@ -21057,13 +21021,13 @@
         <v>31</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D186" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E186" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F186" s="4">
         <v>0</v>
@@ -21103,13 +21067,13 @@
         <v>31</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D187" s="2">
+        <v>19.077065000000001</v>
+      </c>
+      <c r="E187" s="2">
+        <v>72.998992999999999</v>
       </c>
       <c r="F187" s="4">
         <v>0</v>
@@ -21149,13 +21113,13 @@
         <v>32</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D188" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E188" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F188" s="4">
         <v>26505.272727272728</v>
@@ -21195,13 +21159,13 @@
         <v>32</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D189" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E189" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F189" s="4">
         <v>0</v>
@@ -21241,13 +21205,13 @@
         <v>32</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D190" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E190" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F190" s="4">
         <v>0</v>
@@ -21287,13 +21251,13 @@
         <v>32</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D191" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E191" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F191" s="4">
         <v>26505.272727272728</v>
@@ -21333,13 +21297,13 @@
         <v>32</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D192" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E192" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F192" s="4">
         <v>0</v>
@@ -21379,13 +21343,13 @@
         <v>32</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D193" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E193" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F193" s="4">
         <v>0</v>
@@ -21425,13 +21389,13 @@
         <v>32</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D194" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E194" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F194" s="4">
         <v>26505.272727272728</v>
@@ -21471,13 +21435,13 @@
         <v>32</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D195" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E195" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F195" s="4">
         <v>0</v>
@@ -21517,13 +21481,13 @@
         <v>32</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D196" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E196" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F196" s="4">
         <v>26505.272727272728</v>
@@ -21563,13 +21527,13 @@
         <v>32</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D197" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E197" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F197" s="4">
         <v>0</v>
@@ -21609,13 +21573,13 @@
         <v>32</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D198" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E198" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F198" s="4">
         <v>0</v>
@@ -21655,13 +21619,13 @@
         <v>32</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D199" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E199" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F199" s="4">
         <v>26505.272727272728</v>
@@ -21701,13 +21665,13 @@
         <v>32</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D200" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E200" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F200" s="4">
         <v>0</v>
@@ -21747,13 +21711,13 @@
         <v>32</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D201" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E201" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F201" s="4">
         <v>0</v>
@@ -21793,13 +21757,13 @@
         <v>32</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D202" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E202" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F202" s="4">
         <v>26505.272727272728</v>
@@ -21839,13 +21803,13 @@
         <v>32</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D203" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E203" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F203" s="4">
         <v>0</v>
@@ -21885,13 +21849,13 @@
         <v>32</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D204" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E204" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F204" s="4">
         <v>0</v>
@@ -21931,13 +21895,13 @@
         <v>32</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D205" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E205" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F205" s="4">
         <v>26505.272727272728</v>
@@ -21977,13 +21941,13 @@
         <v>32</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D206" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E206" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F206" s="4">
         <v>0</v>
@@ -22023,13 +21987,13 @@
         <v>32</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D207" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E207" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F207" s="4">
         <v>0</v>
@@ -22069,13 +22033,13 @@
         <v>32</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D208" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E208" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F208" s="4">
         <v>26505.272727272728</v>
@@ -22115,13 +22079,13 @@
         <v>32</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D209" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E209" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F209" s="4">
         <v>0</v>
@@ -22161,13 +22125,13 @@
         <v>32</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D210" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E210" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F210" s="4">
         <v>26505.272727272728</v>
@@ -22207,13 +22171,13 @@
         <v>32</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D211" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E211" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F211" s="4">
         <v>0</v>
@@ -22253,13 +22217,13 @@
         <v>32</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D212" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E212" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F212" s="4">
         <v>0</v>
@@ -22299,13 +22263,13 @@
         <v>32</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D213" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E213" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F213" s="4">
         <v>26505.272727272728</v>
@@ -22345,13 +22309,13 @@
         <v>32</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D214" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E214" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F214" s="4">
         <v>0</v>
@@ -22391,13 +22355,13 @@
         <v>32</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D215" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E215" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F215" s="4">
         <v>0</v>
@@ -22437,13 +22401,13 @@
         <v>32</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D216" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E216" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F216" s="4">
         <v>26505.272727272728</v>
@@ -22483,13 +22447,13 @@
         <v>32</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D217" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E217" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F217" s="4">
         <v>0</v>
@@ -22529,13 +22493,13 @@
         <v>32</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D218" s="2">
+        <v>30.066116999999998</v>
+      </c>
+      <c r="E218" s="2">
+        <v>31.284981999999999</v>
       </c>
       <c r="F218" s="4">
         <v>0</v>
@@ -22575,13 +22539,13 @@
         <v>33</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D219" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E219" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F219" s="4">
         <v>10153.848484848484</v>
@@ -22621,13 +22585,13 @@
         <v>33</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D220" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E220" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F220" s="4">
         <v>0</v>
@@ -22667,13 +22631,13 @@
         <v>33</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D221" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E221" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F221" s="4">
         <v>0</v>
@@ -22713,13 +22677,13 @@
         <v>33</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D222" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E222" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F222" s="4">
         <v>10153.848484848484</v>
@@ -22759,13 +22723,13 @@
         <v>33</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D223" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E223" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F223" s="4">
         <v>0</v>
@@ -22805,13 +22769,13 @@
         <v>33</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D224" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E224" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F224" s="4">
         <v>0</v>
@@ -22851,13 +22815,13 @@
         <v>33</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D225" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E225" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F225" s="4">
         <v>10153.848484848484</v>
@@ -22897,13 +22861,13 @@
         <v>33</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D226" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E226" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F226" s="4">
         <v>0</v>
@@ -22943,13 +22907,13 @@
         <v>33</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D227" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E227" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F227" s="4">
         <v>10153.848484848484</v>
@@ -22989,13 +22953,13 @@
         <v>33</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D228" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E228" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F228" s="4">
         <v>0</v>
@@ -23035,13 +22999,13 @@
         <v>33</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D229" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E229" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F229" s="4">
         <v>0</v>
@@ -23081,13 +23045,13 @@
         <v>33</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D230" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E230" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F230" s="4">
         <v>10153.848484848484</v>
@@ -23127,13 +23091,13 @@
         <v>33</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D231" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E231" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F231" s="4">
         <v>0</v>
@@ -23173,13 +23137,13 @@
         <v>33</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D232" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E232" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F232" s="4">
         <v>0</v>
@@ -23219,13 +23183,13 @@
         <v>33</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D233" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E233" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F233" s="4">
         <v>10153.848484848484</v>
@@ -23265,13 +23229,13 @@
         <v>33</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D234" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E234" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F234" s="4">
         <v>0</v>
@@ -23311,13 +23275,13 @@
         <v>33</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D235" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E235" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F235" s="4">
         <v>0</v>
@@ -23357,13 +23321,13 @@
         <v>33</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D236" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E236" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F236" s="4">
         <v>10153.848484848484</v>
@@ -23403,13 +23367,13 @@
         <v>33</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D237" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E237" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F237" s="4">
         <v>0</v>
@@ -23449,13 +23413,13 @@
         <v>33</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D238" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E238" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F238" s="4">
         <v>0</v>
@@ -23495,13 +23459,13 @@
         <v>33</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D239" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E239" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F239" s="4">
         <v>10153.848484848484</v>
@@ -23541,13 +23505,13 @@
         <v>33</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D240" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E240" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F240" s="4">
         <v>0</v>
@@ -23587,13 +23551,13 @@
         <v>33</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D241" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E241" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F241" s="4">
         <v>10153.848484848484</v>
@@ -23633,13 +23597,13 @@
         <v>33</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D242" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E242" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F242" s="4">
         <v>0</v>
@@ -23679,13 +23643,13 @@
         <v>33</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D243" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E243" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F243" s="4">
         <v>0</v>
@@ -23725,13 +23689,13 @@
         <v>33</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D244" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E244" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F244" s="4">
         <v>10153.848484848484</v>
@@ -23771,13 +23735,13 @@
         <v>33</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D245" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E245" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F245" s="4">
         <v>0</v>
@@ -23817,13 +23781,13 @@
         <v>33</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D246" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E246" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F246" s="4">
         <v>0</v>
@@ -23863,13 +23827,13 @@
         <v>33</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D247" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E247" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F247" s="4">
         <v>10153.848484848484</v>
@@ -23909,13 +23873,13 @@
         <v>33</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D248" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E248" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F248" s="4">
         <v>0</v>
@@ -23955,13 +23919,13 @@
         <v>33</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D249" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E249" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F249" s="4">
         <v>0</v>
@@ -24001,13 +23965,13 @@
         <v>33</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D250" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E250" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F250" s="4">
         <v>22423.5</v>
@@ -24047,13 +24011,13 @@
         <v>33</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D251" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E251" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F251" s="4">
         <v>0</v>
@@ -24093,13 +24057,13 @@
         <v>33</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D252" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E252" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F252" s="4">
         <v>0</v>
@@ -24139,13 +24103,13 @@
         <v>33</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D253" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E253" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F253" s="4">
         <v>22423.5</v>
@@ -24185,13 +24149,13 @@
         <v>33</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D254" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E254" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F254" s="4">
         <v>0</v>
@@ -24231,13 +24195,13 @@
         <v>33</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D255" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E255" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F255" s="4">
         <v>0</v>
@@ -24277,13 +24241,13 @@
         <v>33</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D256" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E256" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F256" s="4">
         <v>22423.5</v>
@@ -24323,13 +24287,13 @@
         <v>33</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D257" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E257" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F257" s="4">
         <v>0</v>
@@ -24369,13 +24333,13 @@
         <v>33</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D258" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E258" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F258" s="4">
         <v>22423.5</v>
@@ -24415,13 +24379,13 @@
         <v>33</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D259" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E259" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F259" s="4">
         <v>0</v>
@@ -24461,13 +24425,13 @@
         <v>33</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D260" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E260" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F260" s="4">
         <v>0</v>
@@ -24507,13 +24471,13 @@
         <v>33</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D261" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E261" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F261" s="4">
         <v>22423.5</v>
@@ -24553,13 +24517,13 @@
         <v>33</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D262" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E262" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F262" s="4">
         <v>0</v>
@@ -24599,13 +24563,13 @@
         <v>33</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D263" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E263" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F263" s="4">
         <v>0</v>
@@ -24645,13 +24609,13 @@
         <v>33</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D264" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E264" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F264" s="4">
         <v>22423.5</v>
@@ -24691,13 +24655,13 @@
         <v>33</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D265" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E265" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F265" s="4">
         <v>0</v>
@@ -24737,13 +24701,13 @@
         <v>33</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D266" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E266" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F266" s="4">
         <v>0</v>
@@ -24783,13 +24747,13 @@
         <v>33</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D267" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E267" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F267" s="4">
         <v>22423.5</v>
@@ -24829,13 +24793,13 @@
         <v>33</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D268" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E268" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F268" s="4">
         <v>0</v>
@@ -24875,13 +24839,13 @@
         <v>33</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D269" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E269" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F269" s="4">
         <v>0</v>
@@ -24921,13 +24885,13 @@
         <v>33</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D270" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E270" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F270" s="4">
         <v>22423.5</v>
@@ -24967,13 +24931,13 @@
         <v>33</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D271" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E271" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F271" s="4">
         <v>0</v>
@@ -25013,13 +24977,13 @@
         <v>33</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D272" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E272" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F272" s="4">
         <v>22423.5</v>
@@ -25059,13 +25023,13 @@
         <v>33</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D273" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E273" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F273" s="4">
         <v>0</v>
@@ -25105,13 +25069,13 @@
         <v>33</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D274" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E274" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F274" s="4">
         <v>0</v>
@@ -25151,13 +25115,13 @@
         <v>33</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D275" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E275" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F275" s="4">
         <v>22423.5</v>
@@ -25197,13 +25161,13 @@
         <v>33</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D276" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E276" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F276" s="4">
         <v>0</v>
@@ -25243,13 +25207,13 @@
         <v>33</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D277" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E277" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F277" s="4">
         <v>0</v>
@@ -25289,13 +25253,13 @@
         <v>33</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D278" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E278" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F278" s="4">
         <v>22423.5</v>
@@ -25335,13 +25299,13 @@
         <v>33</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D279" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E279" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F279" s="4">
         <v>0</v>
@@ -25381,13 +25345,13 @@
         <v>33</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D280" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E280" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F280" s="4">
         <v>0</v>
@@ -25427,13 +25391,13 @@
         <v>33</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D281" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E281" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F281" s="4">
         <v>3280.5227272727275</v>
@@ -25473,13 +25437,13 @@
         <v>33</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D282" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E282" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F282" s="4">
         <v>0</v>
@@ -25519,13 +25483,13 @@
         <v>33</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D283" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E283" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F283" s="4">
         <v>0</v>
@@ -25565,13 +25529,13 @@
         <v>33</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D284" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E284" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F284" s="4">
         <v>3280.5227272727275</v>
@@ -25611,13 +25575,13 @@
         <v>33</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D285" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E285" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F285" s="4">
         <v>0</v>
@@ -25657,13 +25621,13 @@
         <v>33</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D286" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E286" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F286" s="4">
         <v>0</v>
@@ -25703,13 +25667,13 @@
         <v>33</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D287" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E287" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F287" s="4">
         <v>3280.5227272727275</v>
@@ -25749,13 +25713,13 @@
         <v>33</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D288" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E288" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F288" s="4">
         <v>0</v>
@@ -25795,13 +25759,13 @@
         <v>33</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D289" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E289" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F289" s="4">
         <v>3280.5227272727275</v>
@@ -25841,13 +25805,13 @@
         <v>33</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D290" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E290" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F290" s="4">
         <v>0</v>
@@ -25887,13 +25851,13 @@
         <v>33</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D291" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E291" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F291" s="4">
         <v>0</v>
@@ -25933,13 +25897,13 @@
         <v>33</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D292" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E292" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F292" s="4">
         <v>3280.5227272727275</v>
@@ -25979,13 +25943,13 @@
         <v>33</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D293" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E293" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F293" s="4">
         <v>0</v>
@@ -26025,13 +25989,13 @@
         <v>33</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D294" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E294" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F294" s="4">
         <v>0</v>
@@ -26071,13 +26035,13 @@
         <v>33</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D295" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E295" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F295" s="4">
         <v>3280.5227272727275</v>
@@ -26117,13 +26081,13 @@
         <v>33</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D296" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E296" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F296" s="4">
         <v>0</v>
@@ -26163,13 +26127,13 @@
         <v>33</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D297" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E297" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F297" s="4">
         <v>0</v>
@@ -26209,13 +26173,13 @@
         <v>33</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D298" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E298" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F298" s="4">
         <v>3280.5227272727275</v>
@@ -26255,13 +26219,13 @@
         <v>33</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D299" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E299" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F299" s="4">
         <v>0</v>
@@ -26301,13 +26265,13 @@
         <v>33</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D300" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E300" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F300" s="4">
         <v>0</v>
@@ -26347,13 +26311,13 @@
         <v>33</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D301" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E301" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F301" s="4">
         <v>3280.5227272727275</v>
@@ -26393,13 +26357,13 @@
         <v>33</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D302" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E302" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F302" s="4">
         <v>0</v>
@@ -26439,13 +26403,13 @@
         <v>33</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D303" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E303" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F303" s="4">
         <v>3280.5227272727275</v>
@@ -26485,13 +26449,13 @@
         <v>33</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D304" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E304" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F304" s="4">
         <v>0</v>
@@ -26531,13 +26495,13 @@
         <v>33</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D305" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E305" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F305" s="4">
         <v>0</v>
@@ -26577,13 +26541,13 @@
         <v>33</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D306" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E306" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F306" s="4">
         <v>3280.5227272727275</v>
@@ -26623,13 +26587,13 @@
         <v>33</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D307" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E307" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F307" s="4">
         <v>0</v>
@@ -26669,13 +26633,13 @@
         <v>33</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D308" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E308" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F308" s="4">
         <v>0</v>
@@ -26715,13 +26679,13 @@
         <v>33</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D309" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E309" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F309" s="4">
         <v>3280.5227272727275</v>
@@ -26761,13 +26725,13 @@
         <v>33</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D310" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E310" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F310" s="4">
         <v>0</v>
@@ -26807,13 +26771,13 @@
         <v>33</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D311" s="2">
+        <v>22.401644000000001</v>
+      </c>
+      <c r="E311" s="2">
+        <v>69.723479999999995</v>
       </c>
       <c r="F311" s="4">
         <v>0</v>
@@ -26853,13 +26817,13 @@
         <v>12</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D312" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E312" s="2">
+        <v>92.75</v>
       </c>
       <c r="F312" s="4">
         <v>22423.5</v>
@@ -26899,13 +26863,13 @@
         <v>12</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D313" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E313" s="2">
+        <v>92.75</v>
       </c>
       <c r="F313" s="4">
         <v>0</v>
@@ -26945,13 +26909,13 @@
         <v>12</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D314" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E314" s="2">
+        <v>92.75</v>
       </c>
       <c r="F314" s="4">
         <v>0</v>
@@ -26991,13 +26955,13 @@
         <v>12</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D315" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E315" s="2">
+        <v>92.75</v>
       </c>
       <c r="F315" s="4">
         <v>22423.5</v>
@@ -27037,13 +27001,13 @@
         <v>12</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D316" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E316" s="2">
+        <v>92.75</v>
       </c>
       <c r="F316" s="4">
         <v>0</v>
@@ -27083,13 +27047,13 @@
         <v>12</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D317" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E317" s="2">
+        <v>92.75</v>
       </c>
       <c r="F317" s="4">
         <v>0</v>
@@ -27129,13 +27093,13 @@
         <v>12</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D318" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E318" s="2">
+        <v>92.75</v>
       </c>
       <c r="F318" s="4">
         <v>22423.5</v>
@@ -27175,13 +27139,13 @@
         <v>12</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D319" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E319" s="2">
+        <v>92.75</v>
       </c>
       <c r="F319" s="4">
         <v>0</v>
@@ -27221,13 +27185,13 @@
         <v>12</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D320" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E320" s="2">
+        <v>92.75</v>
       </c>
       <c r="F320" s="4">
         <v>22423.5</v>
@@ -27267,13 +27231,13 @@
         <v>12</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D321" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E321" s="2">
+        <v>92.75</v>
       </c>
       <c r="F321" s="4">
         <v>0</v>
@@ -27313,13 +27277,13 @@
         <v>12</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D322" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E322" s="2">
+        <v>92.75</v>
       </c>
       <c r="F322" s="4">
         <v>0</v>
@@ -27359,13 +27323,13 @@
         <v>12</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D323" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E323" s="2">
+        <v>92.75</v>
       </c>
       <c r="F323" s="4">
         <v>22423.5</v>
@@ -27405,13 +27369,13 @@
         <v>12</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D324" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E324" s="2">
+        <v>92.75</v>
       </c>
       <c r="F324" s="4">
         <v>0</v>
@@ -27451,13 +27415,13 @@
         <v>12</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D325" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E325" s="2">
+        <v>92.75</v>
       </c>
       <c r="F325" s="4">
         <v>0</v>
@@ -27497,13 +27461,13 @@
         <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D326" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E326" s="2">
+        <v>92.75</v>
       </c>
       <c r="F326" s="4">
         <v>22423.5</v>
@@ -27543,13 +27507,13 @@
         <v>12</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D327" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E327" s="2">
+        <v>92.75</v>
       </c>
       <c r="F327" s="4">
         <v>0</v>
@@ -27589,13 +27553,13 @@
         <v>12</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D328" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E328" s="2">
+        <v>92.75</v>
       </c>
       <c r="F328" s="4">
         <v>0</v>
@@ -27635,13 +27599,13 @@
         <v>12</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D329" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E329" s="2">
+        <v>92.75</v>
       </c>
       <c r="F329" s="4">
         <v>22423.5</v>
@@ -27681,13 +27645,13 @@
         <v>12</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D330" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E330" s="2">
+        <v>92.75</v>
       </c>
       <c r="F330" s="4">
         <v>0</v>
@@ -27727,13 +27691,13 @@
         <v>12</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D331" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E331" s="2">
+        <v>92.75</v>
       </c>
       <c r="F331" s="4">
         <v>0</v>
@@ -27773,13 +27737,13 @@
         <v>12</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D332" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E332" s="2">
+        <v>92.75</v>
       </c>
       <c r="F332" s="4">
         <v>22423.5</v>
@@ -27819,13 +27783,13 @@
         <v>12</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D333" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E333" s="2">
+        <v>92.75</v>
       </c>
       <c r="F333" s="4">
         <v>0</v>
@@ -27865,13 +27829,13 @@
         <v>12</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D334" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E334" s="2">
+        <v>92.75</v>
       </c>
       <c r="F334" s="4">
         <v>22423.5</v>
@@ -27911,13 +27875,13 @@
         <v>12</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D335" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E335" s="2">
+        <v>92.75</v>
       </c>
       <c r="F335" s="4">
         <v>0</v>
@@ -27957,13 +27921,13 @@
         <v>12</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D336" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E336" s="2">
+        <v>92.75</v>
       </c>
       <c r="F336" s="4">
         <v>0</v>
@@ -28003,13 +27967,13 @@
         <v>12</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D337" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E337" s="2">
+        <v>92.75</v>
       </c>
       <c r="F337" s="4">
         <v>22423.5</v>
@@ -28049,13 +28013,13 @@
         <v>12</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D338" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E338" s="2">
+        <v>92.75</v>
       </c>
       <c r="F338" s="4">
         <v>0</v>
@@ -28095,13 +28059,13 @@
         <v>12</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D339" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E339" s="2">
+        <v>92.75</v>
       </c>
       <c r="F339" s="4">
         <v>0</v>
@@ -28141,13 +28105,13 @@
         <v>12</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D340" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E340" s="2">
+        <v>92.75</v>
       </c>
       <c r="F340" s="4">
         <v>22423.5</v>
@@ -28187,13 +28151,13 @@
         <v>12</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D341" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E341" s="2">
+        <v>92.75</v>
       </c>
       <c r="F341" s="4">
         <v>0</v>
@@ -28233,13 +28197,13 @@
         <v>12</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="D342" s="2">
+        <v>11.66667</v>
+      </c>
+      <c r="E342" s="2">
+        <v>92.75</v>
       </c>
       <c r="F342" s="4">
         <v>0</v>

--- a/Supply.xlsx
+++ b/Supply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyidong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEC14F-A45A-F744-AEE6-F911F08CD5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06415B5D-1A77-964E-9958-F96406C9EAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F79BD824-BF5C-4D41-98DC-08BFC4AC6513}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F79BD824-BF5C-4D41-98DC-08BFC4AC6513}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand" sheetId="1" r:id="rId1"/>
@@ -12493,8 +12493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B112A-F995-2E40-A910-95B0E8AF787E}">
   <dimension ref="A1:N342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312:E342"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="E314" sqref="E314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21116,10 +21116,10 @@
         <v>43</v>
       </c>
       <c r="D188" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E188" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F188" s="4">
         <v>26505.272727272728</v>
@@ -21162,10 +21162,10 @@
         <v>43</v>
       </c>
       <c r="D189" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E189" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F189" s="4">
         <v>0</v>
@@ -21208,10 +21208,10 @@
         <v>43</v>
       </c>
       <c r="D190" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E190" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F190" s="4">
         <v>0</v>
@@ -21254,10 +21254,10 @@
         <v>43</v>
       </c>
       <c r="D191" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E191" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F191" s="4">
         <v>26505.272727272728</v>
@@ -21300,10 +21300,10 @@
         <v>43</v>
       </c>
       <c r="D192" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E192" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F192" s="4">
         <v>0</v>
@@ -21346,10 +21346,10 @@
         <v>43</v>
       </c>
       <c r="D193" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E193" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F193" s="4">
         <v>0</v>
@@ -21392,10 +21392,10 @@
         <v>43</v>
       </c>
       <c r="D194" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E194" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F194" s="4">
         <v>26505.272727272728</v>
@@ -21438,10 +21438,10 @@
         <v>43</v>
       </c>
       <c r="D195" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E195" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F195" s="4">
         <v>0</v>
@@ -21484,10 +21484,10 @@
         <v>43</v>
       </c>
       <c r="D196" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E196" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F196" s="4">
         <v>26505.272727272728</v>
@@ -21530,10 +21530,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E197" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F197" s="4">
         <v>0</v>
@@ -21576,10 +21576,10 @@
         <v>43</v>
       </c>
       <c r="D198" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E198" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F198" s="4">
         <v>0</v>
@@ -21622,10 +21622,10 @@
         <v>43</v>
       </c>
       <c r="D199" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E199" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F199" s="4">
         <v>26505.272727272728</v>
@@ -21668,10 +21668,10 @@
         <v>43</v>
       </c>
       <c r="D200" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E200" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F200" s="4">
         <v>0</v>
@@ -21714,10 +21714,10 @@
         <v>43</v>
       </c>
       <c r="D201" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E201" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F201" s="4">
         <v>0</v>
@@ -21760,10 +21760,10 @@
         <v>43</v>
       </c>
       <c r="D202" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E202" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F202" s="4">
         <v>26505.272727272728</v>
@@ -21806,10 +21806,10 @@
         <v>43</v>
       </c>
       <c r="D203" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E203" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F203" s="4">
         <v>0</v>
@@ -21852,10 +21852,10 @@
         <v>43</v>
       </c>
       <c r="D204" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E204" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F204" s="4">
         <v>0</v>
@@ -21898,10 +21898,10 @@
         <v>43</v>
       </c>
       <c r="D205" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E205" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F205" s="4">
         <v>26505.272727272728</v>
@@ -21944,10 +21944,10 @@
         <v>43</v>
       </c>
       <c r="D206" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E206" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F206" s="4">
         <v>0</v>
@@ -21990,10 +21990,10 @@
         <v>43</v>
       </c>
       <c r="D207" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E207" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F207" s="4">
         <v>0</v>
@@ -22036,10 +22036,10 @@
         <v>43</v>
       </c>
       <c r="D208" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E208" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F208" s="4">
         <v>26505.272727272728</v>
@@ -22082,10 +22082,10 @@
         <v>43</v>
       </c>
       <c r="D209" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E209" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F209" s="4">
         <v>0</v>
@@ -22128,10 +22128,10 @@
         <v>43</v>
       </c>
       <c r="D210" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E210" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F210" s="4">
         <v>26505.272727272728</v>
@@ -22174,10 +22174,10 @@
         <v>43</v>
       </c>
       <c r="D211" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E211" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F211" s="4">
         <v>0</v>
@@ -22220,10 +22220,10 @@
         <v>43</v>
       </c>
       <c r="D212" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E212" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F212" s="4">
         <v>0</v>
@@ -22266,10 +22266,10 @@
         <v>43</v>
       </c>
       <c r="D213" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E213" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F213" s="4">
         <v>26505.272727272728</v>
@@ -22312,10 +22312,10 @@
         <v>43</v>
       </c>
       <c r="D214" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E214" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F214" s="4">
         <v>0</v>
@@ -22358,10 +22358,10 @@
         <v>43</v>
       </c>
       <c r="D215" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E215" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F215" s="4">
         <v>0</v>
@@ -22404,10 +22404,10 @@
         <v>43</v>
       </c>
       <c r="D216" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E216" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F216" s="4">
         <v>26505.272727272728</v>
@@ -22450,10 +22450,10 @@
         <v>43</v>
       </c>
       <c r="D217" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E217" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F217" s="4">
         <v>0</v>
@@ -22496,10 +22496,10 @@
         <v>43</v>
       </c>
       <c r="D218" s="2">
-        <v>30.066116999999998</v>
+        <v>22.432179999999999</v>
       </c>
       <c r="E218" s="2">
-        <v>31.284981999999999</v>
+        <v>69.841579999999993</v>
       </c>
       <c r="F218" s="4">
         <v>0</v>
